--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,90 +40,90 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>negative</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>stupid</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>boring</t>
+    <t>guilty</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>stupid</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>crazy</t>
+    <t>serious</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
@@ -151,43 +151,31 @@
     <t>happy</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
     <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>…</t>
@@ -559,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -723,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,13 +732,13 @@
         <v>40</v>
       </c>
       <c r="K5">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9326923076923077</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K7">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9242424242424242</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>43</v>
@@ -920,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>44</v>
@@ -970,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8888888888888888</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>0.5862068965517241</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.875</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>0.5333333333333333</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7692307692307693</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1088,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K12">
-        <v>0.4833333333333333</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1132,13 @@
         <v>48</v>
       </c>
       <c r="K13">
-        <v>0.4444444444444444</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K14">
-        <v>0.4210526315789473</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1212,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1220,13 +1208,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7368421052631579</v>
+        <v>0.7</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1238,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1262,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,13 +1258,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7058823529411765</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1288,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K16">
-        <v>0.1707317073170732</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1312,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,13 +1308,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1338,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K17">
-        <v>0.1458333333333333</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>41</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1370,13 +1358,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1388,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K18">
-        <v>0.1016949152542373</v>
+        <v>0.009036144578313253</v>
       </c>
       <c r="L18">
         <v>6</v>
@@ -1412,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>53</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,13 +1408,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5507246376811594</v>
+        <v>0.625</v>
       </c>
       <c r="C19">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K19">
-        <v>0.09230769230769231</v>
+        <v>0.006336405529953917</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1462,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>59</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1490,30 +1478,6 @@
       <c r="H20">
         <v>10</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="L20">
-        <v>6</v>
-      </c>
-      <c r="M20">
-        <v>6</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>65</v>
-      </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
@@ -1540,43 +1504,19 @@
       <c r="H21">
         <v>6</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21">
-        <v>0.06648451730418943</v>
-      </c>
-      <c r="L21">
-        <v>73</v>
-      </c>
-      <c r="M21">
-        <v>73</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1025</v>
-      </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1588,31 +1528,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22">
-        <v>0.01296296296296296</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>533</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1620,13 +1536,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4615384615384616</v>
+        <v>0.4855072463768116</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1638,31 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23">
-        <v>0.005184331797235023</v>
-      </c>
-      <c r="L23">
-        <v>9</v>
-      </c>
-      <c r="M23">
-        <v>9</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>1727</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1670,13 +1562,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4468085106382979</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1688,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1696,13 +1588,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1714,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1722,13 +1614,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3714285714285714</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1740,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1748,13 +1640,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.358974358974359</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1766,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1774,13 +1666,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3478260869565217</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1792,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1800,13 +1692,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3214285714285715</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1818,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1826,13 +1718,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2916666666666667</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1844,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1878,13 +1770,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1153846153846154</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1896,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
